--- a/Crossref-xlsx.xlsx
+++ b/Crossref-xlsx.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7A761-B5BF-40B8-A156-2400856F4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EEC9C2-AF09-404D-9828-908F102E1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crossref xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Predatory Publishers" sheetId="4" r:id="rId2"/>
+    <sheet name="Organization Types" sheetId="3" r:id="rId3"/>
+    <sheet name="Types" sheetId="5" r:id="rId4"/>
+    <sheet name="Country" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="490">
   <si>
     <t>Name</t>
   </si>
@@ -1463,6 +1467,42 @@
   </si>
   <si>
     <t>10.18203</t>
+  </si>
+  <si>
+    <t>Journals</t>
+  </si>
+  <si>
+    <t>DOI Prefixes</t>
+  </si>
+  <si>
+    <t>DOIs</t>
+  </si>
+  <si>
+    <t>DOI prefixes</t>
+  </si>
+  <si>
+    <t>Scientific society</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>research institution</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>research institutions and libraries</t>
+  </si>
+  <si>
+    <t>journal series</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1534,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1733,11 +1773,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1770,6 +1821,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1785,6 +1838,1481 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Country!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DOI Prefixes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Country!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>South Africa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bulgaria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Singapore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Egypt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>United Arab Emirates</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>People's Republic of China</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>United States of America</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Country!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7766-4C45-ADDD-62E62F3F871E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Country!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Journals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Country!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>South Africa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bulgaria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Singapore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Egypt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>United Arab Emirates</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>People's Republic of China</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>United States of America</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Country!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7766-4C45-ADDD-62E62F3F871E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Country!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DOIs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Country!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>South Africa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bulgaria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Singapore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Egypt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>United Arab Emirates</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>People's Republic of China</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>United States of America</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Country!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>91230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>418896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>423302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>468030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>468466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>833878</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1330316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2237315</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9795825</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19980114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20502368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24791443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7766-4C45-ADDD-62E62F3F871E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="462688520"/>
+        <c:axId val="462687536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="462688520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462687536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462687536"/>
+        <c:scaling>
+          <c:logBase val="100"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462688520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A45ADB-7913-9C39-CE1A-4297A66805F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2086,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H204" sqref="H204"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7562,7 +9090,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I201">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I203">
     <sortCondition descending="1" ref="F2:F201"/>
   </sortState>
   <mergeCells count="2">
@@ -8132,4 +9660,1786 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId559"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981D3D9-93FC-443A-A884-C21B172FF6DB}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14">
+        <v>400</v>
+      </c>
+      <c r="F2" s="14">
+        <v>726722</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="14">
+        <v>254</v>
+      </c>
+      <c r="F3" s="14">
+        <v>103642</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="14">
+        <v>525</v>
+      </c>
+      <c r="F4" s="14">
+        <v>97056</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14">
+        <v>65</v>
+      </c>
+      <c r="F5" s="14">
+        <v>69963</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="14">
+        <v>87</v>
+      </c>
+      <c r="F6" s="14">
+        <v>49939</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="14">
+        <v>120</v>
+      </c>
+      <c r="F7" s="14">
+        <v>49771</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="14">
+        <v>43</v>
+      </c>
+      <c r="F8" s="14">
+        <v>46570</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="14">
+        <v>71</v>
+      </c>
+      <c r="F9" s="14">
+        <v>44807</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="14">
+        <v>136</v>
+      </c>
+      <c r="F10" s="14">
+        <v>38085</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="14">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14">
+        <v>37387</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4</v>
+      </c>
+      <c r="F12" s="14">
+        <v>33796</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="14">
+        <v>115</v>
+      </c>
+      <c r="F13" s="14">
+        <v>33304</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="15">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15">
+        <v>31866</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{84B734A5-9182-4BD3-885D-50DDFE1E1153}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{3C788117-D619-4EA5-8B26-B4A3C1546DA6}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{EA30263E-40CE-4A3F-A7C1-60A3390C5059}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{7945CDB6-67BD-4645-A241-A3826088C6E7}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{79759B08-C263-4DCD-9E16-F5D0510E550B}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{F4161804-B711-4A8B-9C98-3E0798FA1C47}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{990A8B07-42CB-4EBC-8302-54145C20BFCE}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{2FC627BB-08C0-4C1A-8B80-6DC1531A5B9F}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{6470D5B6-EEF9-46FB-B41E-0499597D8497}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{33F9ABFA-4A79-471D-B776-5C9986D150FC}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{C3B88258-3BFE-473F-BEF2-BA164ABE0C32}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{619E889B-0A9F-4315-BF8A-684215E3323C}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{BDFB9582-1659-49BE-87DB-DADA7172EC28}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{0FC0104D-88B9-40D2-AC4A-749872279FFE}"/>
+    <hyperlink ref="C8" r:id="rId15" xr:uid="{F82BBB6B-84A4-4832-9490-E341494286DD}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{9674348E-DE61-4BFE-A36C-64AFE9A5026B}"/>
+    <hyperlink ref="C9" r:id="rId17" xr:uid="{8FE05E6D-B516-4734-BD0A-F495528DF7A5}"/>
+    <hyperlink ref="B12" r:id="rId18" xr:uid="{5B82831A-D658-437D-8C83-04AA7E8C4745}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{D474C996-2A7E-4B9B-A3CC-A1F82645A9C9}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{FD6032F4-8BFD-4038-BCBB-B24C910BD2A6}"/>
+    <hyperlink ref="B13" r:id="rId21" xr:uid="{4A78E918-1044-49E6-8F9A-84E9F9306DB3}"/>
+    <hyperlink ref="C13" r:id="rId22" xr:uid="{329B9F3F-247C-40CE-9438-26054B764CCB}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{BEEB37E8-217F-4953-9AB5-8545D2F3D3A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId24"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3DC172-CFFB-4214-8B6A-3F46DC2E9044}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="B1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22614</v>
+      </c>
+      <c r="D2" s="3">
+        <v>47114633</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>453</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5556226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>936</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2716106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1031750</v>
+      </c>
+      <c r="E5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>103</v>
+      </c>
+      <c r="D6" s="3">
+        <v>847053</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1591</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1749322</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1645</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5641068</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3">
+        <v>540187</v>
+      </c>
+      <c r="E9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>462</v>
+      </c>
+      <c r="D10" s="3">
+        <v>833828</v>
+      </c>
+      <c r="E10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>644533</v>
+      </c>
+      <c r="E11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>671</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1221930</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>128</v>
+      </c>
+      <c r="D13" s="3">
+        <v>551842</v>
+      </c>
+      <c r="E13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3649</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5299146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>281</v>
+      </c>
+      <c r="D15" s="3">
+        <v>171339</v>
+      </c>
+      <c r="E15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1336</v>
+      </c>
+      <c r="D16" s="3">
+        <v>780932</v>
+      </c>
+      <c r="E16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>200</v>
+      </c>
+      <c r="D17" s="3">
+        <v>76641</v>
+      </c>
+      <c r="E17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3">
+        <v>534521</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>199</v>
+      </c>
+      <c r="D19" s="3">
+        <v>568965</v>
+      </c>
+      <c r="E19" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3">
+        <v>676014</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>516</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3802105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>374</v>
+      </c>
+      <c r="D22" s="3">
+        <v>410782</v>
+      </c>
+      <c r="E22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>171</v>
+      </c>
+      <c r="D23" s="3">
+        <v>56808</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>65879</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>459</v>
+      </c>
+      <c r="D25" s="3">
+        <v>160366</v>
+      </c>
+      <c r="E25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3">
+        <v>54075</v>
+      </c>
+      <c r="E26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>49018</v>
+      </c>
+      <c r="E27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
+        <v>216229</v>
+      </c>
+      <c r="E28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>118032</v>
+      </c>
+      <c r="E29" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>783</v>
+      </c>
+      <c r="D30" s="3">
+        <v>196005</v>
+      </c>
+      <c r="E30" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3">
+        <v>49475</v>
+      </c>
+      <c r="E31" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45648</v>
+      </c>
+      <c r="E33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>22</v>
+      </c>
+      <c r="D34" s="3">
+        <v>78318</v>
+      </c>
+      <c r="E34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3">
+        <v>34422</v>
+      </c>
+      <c r="E35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>89</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45517</v>
+      </c>
+      <c r="E36" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3">
+        <v>34225</v>
+      </c>
+      <c r="E37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>397</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1294983</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>161</v>
+      </c>
+      <c r="D39" s="3">
+        <v>57248</v>
+      </c>
+      <c r="E39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>110581</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B40">
+    <sortCondition descending="1" ref="B2:B40"/>
+    <sortCondition ref="A2:A40"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E0E94D8B-DC2E-4190-AE7C-E972AA0E3D18}"/>
+    <hyperlink ref="A21" r:id="rId2" xr:uid="{CB307E67-DBA3-456E-9E51-72B0F351A398}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{DC2918D2-27A5-4D6D-9CF2-C85CA2841476}"/>
+    <hyperlink ref="A14" r:id="rId4" xr:uid="{9488B57E-D108-4ECF-91C2-8AE3042627AA}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{D388AEB3-EC73-4FD7-85A5-234C784B1FDA}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{8EE6EC66-99BE-4EAD-84B8-278F14D4743D}"/>
+    <hyperlink ref="A38" r:id="rId7" xr:uid="{DB6E7CB2-EB0C-4AAD-8ECA-B7E74076605F}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{D1304E5F-5ADE-47E1-BCF2-5984BCBD5B8B}"/>
+    <hyperlink ref="A20" r:id="rId9" xr:uid="{06C826FF-665C-4E7D-99FB-3115DB490F8B}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{0AF45AF4-8A99-4DA7-B4B0-45120DCDD08B}"/>
+    <hyperlink ref="A22" r:id="rId11" xr:uid="{0FCA01FE-14D0-4244-A5C2-71EE0F4F7108}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{6924B090-3F99-4E30-9576-32A91BAEC4C2}"/>
+    <hyperlink ref="A18" r:id="rId13" xr:uid="{B95A5E41-E1BE-4E45-9CF6-B1CADC7C23BE}"/>
+    <hyperlink ref="A12" r:id="rId14" xr:uid="{BC63383D-0F43-4C99-A366-35DDF7965215}"/>
+    <hyperlink ref="A13" r:id="rId15" xr:uid="{3B13F7B2-0276-41C9-8B73-641109990634}"/>
+    <hyperlink ref="A9" r:id="rId16" xr:uid="{DF8555E4-A713-402D-8060-2DF159622A4F}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{5AA9D807-1B94-488C-8FD8-43AD1BA26A52}"/>
+    <hyperlink ref="A28" r:id="rId18" xr:uid="{26FEADE1-332E-4CE5-A995-724ADF5F1C5A}"/>
+    <hyperlink ref="A6" r:id="rId19" xr:uid="{A243102E-706A-43CE-80DD-135CEDFF8F64}"/>
+    <hyperlink ref="A30" r:id="rId20" xr:uid="{03F399A7-684B-4E19-BE4E-493B992D6491}"/>
+    <hyperlink ref="A11" r:id="rId21" xr:uid="{F758738A-89F8-4E38-86AC-B8D21CB78315}"/>
+    <hyperlink ref="A5" r:id="rId22" xr:uid="{C1B8D4A7-2E25-410F-BCD8-3DC152326EB6}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{0CC9E1C7-2A75-416D-AC7F-1C4A60912E46}"/>
+    <hyperlink ref="A29" r:id="rId24" xr:uid="{258ADBBC-5C12-4807-B2C4-5D9DCD486088}"/>
+    <hyperlink ref="A40" r:id="rId25" xr:uid="{4350E86C-D859-4409-A99F-DFA11EA1308B}"/>
+    <hyperlink ref="A15" r:id="rId26" xr:uid="{7115B149-22AE-4FB0-8DBA-21A3207B5CB8}"/>
+    <hyperlink ref="A34" r:id="rId27" xr:uid="{27055EC6-CF50-4897-BCDE-59E817C93300}"/>
+    <hyperlink ref="A24" r:id="rId28" xr:uid="{49BA2E91-1519-4EF1-AA73-E0723AE99EDE}"/>
+    <hyperlink ref="A39" r:id="rId29" xr:uid="{4B50D721-6E37-4837-8830-18E11DDE50E0}"/>
+    <hyperlink ref="A23" r:id="rId30" xr:uid="{25CAC1F7-AE6F-49C6-BF9A-96322FD9B3A4}"/>
+    <hyperlink ref="A26" r:id="rId31" xr:uid="{4B97D271-1460-472E-BADE-1375B9FF427C}"/>
+    <hyperlink ref="A31" r:id="rId32" xr:uid="{A54E2AB7-F2B1-4E7B-A5D4-C16E375C6913}"/>
+    <hyperlink ref="A27" r:id="rId33" xr:uid="{F9AE282D-79CC-43F9-B0F0-A761F69E24CF}"/>
+    <hyperlink ref="A33" r:id="rId34" xr:uid="{64DA9C46-0804-4F38-83FB-627EBA9ECC19}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{C5CF71B2-2F1F-449B-B83D-44CF09E072E8}"/>
+    <hyperlink ref="A17" r:id="rId36" xr:uid="{DBDDE097-0F96-4C9D-B527-06B778FF7CFE}"/>
+    <hyperlink ref="A32" r:id="rId37" xr:uid="{938458AE-79EB-4300-83AE-27CC29B1239B}"/>
+    <hyperlink ref="A35" r:id="rId38" xr:uid="{D72001EE-6F80-4A7B-9D49-154B2D5B3435}"/>
+    <hyperlink ref="A37" r:id="rId39" xr:uid="{CDCC747B-71D8-459E-B262-2A014A0EA113}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFBF970-16BE-4FFA-9325-AE408CE72451}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3">
+        <v>28696</v>
+      </c>
+      <c r="D2" s="3">
+        <v>55441839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="22">
+        <v>54</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1532</v>
+      </c>
+      <c r="D3" s="22">
+        <v>9192417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1613</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6281437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1645</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5641068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2425</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5562784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>644533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D8" s="3">
+        <v>457894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>878</v>
+      </c>
+      <c r="D9" s="3">
+        <v>250080</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+    <sortCondition descending="1" ref="D9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C308F674-BB0F-4E9F-9064-AC16BA47D06E}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3">
+        <v>91230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>416</v>
+      </c>
+      <c r="D3" s="3">
+        <v>105287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3">
+        <v>110029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3">
+        <v>118594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>189</v>
+      </c>
+      <c r="D6" s="3">
+        <v>188002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>783</v>
+      </c>
+      <c r="D7" s="3">
+        <v>196005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>962</v>
+      </c>
+      <c r="D8" s="3">
+        <v>236557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3">
+        <v>245939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>516</v>
+      </c>
+      <c r="D10" s="3">
+        <v>290601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>311</v>
+      </c>
+      <c r="D11" s="3">
+        <v>418896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1175</v>
+      </c>
+      <c r="D12" s="3">
+        <v>423302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>535</v>
+      </c>
+      <c r="D13" s="3">
+        <v>468030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>566</v>
+      </c>
+      <c r="D14" s="3">
+        <v>468466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>202</v>
+      </c>
+      <c r="D15" s="3">
+        <v>833878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1638</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1330316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1252</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2237315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5789</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9795825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5274</v>
+      </c>
+      <c r="D19" s="3">
+        <v>19980114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9331</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20502368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>81</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7289</v>
+      </c>
+      <c r="D21" s="3">
+        <v>24791443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>253</v>
+      </c>
+      <c r="D22" s="3">
+        <v>82239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3">
+        <v>72096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3">
+        <v>60753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>198</v>
+      </c>
+      <c r="D25" s="3">
+        <v>56338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3">
+        <v>54075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>49613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>89</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>79</v>
+      </c>
+      <c r="D30" s="3">
+        <v>39030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3">
+        <v>35795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>123</v>
+      </c>
+      <c r="D32" s="3">
+        <v>33428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>115</v>
+      </c>
+      <c r="D33" s="3">
+        <v>33304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>101</v>
+      </c>
+      <c r="D34" s="3">
+        <v>32860</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="D2:D21"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" xr:uid="{D680A052-A7C4-4515-B932-38E4A19CBF55}"/>
+    <hyperlink ref="A18" r:id="rId2" xr:uid="{BD74869B-0AA4-4736-B4E4-E77D18B10E39}"/>
+    <hyperlink ref="A20" r:id="rId3" xr:uid="{D7240554-53DE-46EC-BB01-F3362D4AAFA0}"/>
+    <hyperlink ref="A21" r:id="rId4" xr:uid="{7762CDCB-8A2D-4B05-A4A6-2F7FD647B853}"/>
+    <hyperlink ref="A17" r:id="rId5" xr:uid="{98D8F698-DBE0-469E-AD9E-01D2BB0BAD8F}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{F77DC0D5-6C9D-46FE-85CB-601870ED4399}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{2D669367-28B3-461E-9719-BF1A0079FD6E}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{548E7C5C-9CF0-4D90-97FE-D7E5B1B1433C}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{57751C38-D036-4BA5-98D9-F603B70627FD}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{2F068E53-340D-4220-B5B9-1D99245DCFA9}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{95D7373B-4428-4F18-889D-3E7EE02474D9}"/>
+    <hyperlink ref="A6" r:id="rId12" xr:uid="{620EF749-3538-48B4-8BB8-0937B433589D}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{1187C1BF-25E0-4FB5-A354-3F81D6F15E27}"/>
+    <hyperlink ref="A5" r:id="rId14" xr:uid="{66AC3EF9-FA3C-4F31-8964-F5AE03C666F1}"/>
+    <hyperlink ref="A10" r:id="rId15" xr:uid="{5790172A-D8ED-4E97-A084-06F061618B2E}"/>
+    <hyperlink ref="A23" r:id="rId16" xr:uid="{85A140E8-7D1B-49C7-A0A4-C6712C26576D}"/>
+    <hyperlink ref="A24" r:id="rId17" xr:uid="{5130566D-0F68-45C4-BE01-36C654E406AE}"/>
+    <hyperlink ref="A25" r:id="rId18" xr:uid="{F984725D-3DDB-43CF-97A8-C22B6648A4ED}"/>
+    <hyperlink ref="A26" r:id="rId19" xr:uid="{1529CC70-FF66-492C-9106-D6C212EDB2DF}"/>
+    <hyperlink ref="A27" r:id="rId20" xr:uid="{327F7154-CDD5-4F8D-930A-7782FC6861CF}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{D047E396-188D-46F5-9978-4343286137F5}"/>
+    <hyperlink ref="A28" r:id="rId22" xr:uid="{51E99312-6240-428F-8551-FCE5C7C182E8}"/>
+    <hyperlink ref="A30" r:id="rId23" xr:uid="{C78E6485-FAB3-44D6-A4DB-241720FF10D3}"/>
+    <hyperlink ref="A31" r:id="rId24" xr:uid="{32497D19-D9CF-4425-A2B4-2C17E04AF757}"/>
+    <hyperlink ref="A32" r:id="rId25" xr:uid="{6ABC67C1-4B0D-4BE3-AEB3-33BED8650BAA}"/>
+    <hyperlink ref="A33" r:id="rId26" xr:uid="{80074DAC-F2BF-44DC-9EFA-CD5B80B0E7D5}"/>
+    <hyperlink ref="A34" r:id="rId27" xr:uid="{E9728464-D58C-43C9-BCBC-85F4F899E373}"/>
+    <hyperlink ref="A9" r:id="rId28" xr:uid="{9FE628D4-29A7-48D5-9EAF-644F715D2C9A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId29"/>
+</worksheet>
 </file>